--- a/3BT/CStuff/Search/Large.xlsx
+++ b/3BT/CStuff/Search/Large.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrjulol/Programming Stuff/CStuff/Search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrjulol/Programming-Stuff 3BT/3BT/CStuff/Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E870AB-0DFA-9C48-A469-39D1BAEAC0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8479BDB-6FC6-D54D-AEE4-FF45FE6EA404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="5900" windowWidth="28040" windowHeight="17440" xr2:uid="{91DE4C00-68DA-F546-B82B-186663A55336}"/>
+    <workbookView xWindow="33380" yWindow="1100" windowWidth="15420" windowHeight="28700" xr2:uid="{91DE4C00-68DA-F546-B82B-186663A55336}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">results!$A$1:$C$1001</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,25 +47,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Time Linearsearch: ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve"> TIME1</t>
   </si>
   <si>
     <t xml:space="preserve"> TIME2</t>
   </si>
+  <si>
+    <t>Average Time 2</t>
+  </si>
+  <si>
+    <t>Average Time 1</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Max Time 1</t>
+  </si>
+  <si>
+    <t>Max Time 2</t>
+  </si>
+  <si>
+    <t>Search ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3388,6 +3408,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6624,6 +6669,277 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average Time 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Time 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.9600000000000017E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6192499999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E5E-2A49-A7FC-491B7F7997A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1497076143"/>
+        <c:axId val="1496980479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1497076143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496980479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1496980479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1497076143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6665,6 +6981,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7736,20 +8092,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464705</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77934</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7776,16 +8635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>755651</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>196849</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>524742</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>674199</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109753</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>443290</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155936</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7810,6 +8669,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BF0068-8225-4AB3-B4C6-DC417532FA15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7828,8 +8723,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{749A9708-EB7B-0842-87CF-18D5323CC23D}" name="Table_results" displayName="Table_results" ref="A1:C1001" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C1001" xr:uid="{749A9708-EB7B-0842-87CF-18D5323CC23D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1001">
+    <sortCondition ref="A1:A1001"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{17F93E73-31EF-3545-A75A-C6F4C6488976}" uniqueName="1" name="Time Linearsearch: ID" queryTableFieldId="1"/>
+    <tableColumn id="1" xr3:uid="{17F93E73-31EF-3545-A75A-C6F4C6488976}" uniqueName="1" name="Search ID" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{676818D3-9368-D640-B2EC-F26ED9E1F40C}" uniqueName="2" name=" TIME1" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{5B94A4D1-8F0F-C643-B598-496560682973}" uniqueName="3" name=" TIME2" queryTableFieldId="3"/>
   </tableColumns>
@@ -8134,30 +9032,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE856315-0200-FF45-A57F-C8C53665712D}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8167,8 +9067,15 @@
       <c r="C2">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(C2:C1001)</f>
+        <v>2.9600000000000017E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8178,8 +9085,15 @@
       <c r="C3">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B2:B1001)</f>
+        <v>4.6192499999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8190,7 +9104,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8200,8 +9114,15 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>E3-E2</f>
+        <v>4.5896499999999998E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8212,7 +9133,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8223,7 +9144,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8234,7 +9155,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8245,7 +9166,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8256,7 +9177,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8267,7 +9188,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8277,8 +9198,15 @@
       <c r="C12">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f>MAX(B2:B1001)</f>
+        <v>1.6919999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8288,8 +9216,15 @@
       <c r="C13">
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <f>MAX(C2:C1001)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8300,7 +9235,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8310,8 +9245,15 @@
       <c r="C15">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f>E12-E13</f>
+        <v>1.6819999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -14306,7 +15248,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>559</v>
       </c>
@@ -14317,7 +15259,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>560</v>
       </c>
@@ -14328,7 +15270,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>561</v>
       </c>
@@ -14339,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>562</v>
       </c>
@@ -14350,7 +15292,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>563</v>
       </c>
@@ -14361,7 +15303,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>564</v>
       </c>
@@ -14372,7 +15314,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>565</v>
       </c>
@@ -14382,12 +15324,8 @@
       <c r="C567">
         <v>0</v>
       </c>
-      <c r="F567">
-        <f>MAX(C550:C600)</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>566</v>
       </c>
@@ -14398,7 +15336,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>567</v>
       </c>
@@ -14409,7 +15347,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>568</v>
       </c>
@@ -14420,7 +15358,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>569</v>
       </c>
@@ -14431,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>570</v>
       </c>
@@ -14442,7 +15380,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>571</v>
       </c>
@@ -14453,7 +15391,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>572</v>
       </c>
@@ -14464,7 +15402,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>573</v>
       </c>
@@ -14475,7 +15413,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>574</v>
       </c>
@@ -19162,23 +20100,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976858B5-2624-3946-ADDB-1A552F435801}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
